--- a/NiTiErp/wwwroot/export-files/Bill_0.xlsx
+++ b/NiTiErp/wwwroot/export-files/Bill_0.xlsx
@@ -1,57 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoct\Documents\Visual Studio 2017\Projects\TeduCore\TeduCore.WebApp\wwwroot\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="TEDUOrder" sheetId="1" r:id="rId1"/>
+    <sheet name="HoSo" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" iterateDelta="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Sales Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address: Xuan La Tay Ho Ha Noi
-ĐT: 0966 036 626</t>
-  </si>
-  <si>
-    <t>SĐT: 0966 026 626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Name: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone: </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+  <si>
+    <t xml:space="preserve">DANH SÁCH HỒ SƠ NHÂN VIÊN </t>
   </si>
   <si>
     <t>TT</t>
   </si>
   <si>
-    <t>PRODUCT NAME</t>
-  </si>
-  <si>
-    <t>QUANTITY</t>
-  </si>
-  <si>
-    <t>PRICE</t>
+    <t>HỌ TÊN</t>
+  </si>
+  <si>
+    <t>NGÀY SINH</t>
+  </si>
+  <si>
+    <t>SĐT</t>
   </si>
   <si>
     <t>AMOUNT</t>
@@ -60,25 +39,253 @@
     <t>1</t>
   </si>
   <si>
+    <t xml:space="preserve"> wer we </t>
+  </si>
+  <si>
+    <t>6/19/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>234234</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> b34qt</t>
+  </si>
+  <si>
+    <t>45674</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> e4t e </t>
+  </si>
+  <si>
+    <t>456456</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6/18/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>423423</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>546 tet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56456754</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> erge</t>
+  </si>
+  <si>
+    <t>5/29/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>57567</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rt</t>
+  </si>
+  <si>
+    <t>6/17/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>5675678</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fwe rw </t>
+  </si>
+  <si>
+    <t>6/25/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>6456456</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rthrt erg</t>
+  </si>
+  <si>
+    <t>75675</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4645 fgh</t>
+  </si>
+  <si>
+    <t>6/26/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 654 654654</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfgvsd fgs </t>
+  </si>
+  <si>
+    <t>6546456</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> b3453 4t </t>
+  </si>
+  <si>
+    <t>6/12/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34 </t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 te tẽ </t>
+  </si>
+  <si>
+    <t>345345</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4 4g gf dgf ggf</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3453 er er </t>
+  </si>
+  <si>
+    <t>3465</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5R 344T </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> w345e </t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>f sf ef wef</t>
+  </si>
+  <si>
+    <t>534534</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t xml:space="preserve">erte er </t>
   </si>
   <si>
-    <t>6/25/2018 12:00:00 AM</t>
-  </si>
-  <si>
     <t>34534</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Ngày ......... tháng ......... năm 20.........</t>
-  </si>
-  <si>
-    <t>CUSTOMER</t>
-  </si>
-  <si>
-    <t>SALES STAFF</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 345 345</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>666666666</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>56y56 65</t>
+  </si>
+  <si>
+    <t>6/11/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>5678567856</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>gd gdf g</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>7/4/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ert er</t>
+  </si>
+  <si>
+    <t>6/20/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>6/30/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>wef wfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> we </t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>45645</t>
   </si>
 </sst>
 </file>
@@ -89,7 +296,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -100,29 +307,13 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,15 +397,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -265,19 +456,22 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -285,24 +479,6 @@
     </xf>
     <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -320,55 +496,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1619250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>828675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1181100" y="19050"/>
-          <a:ext cx="809626" cy="809626"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,7 +541,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,7 +576,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,7 +753,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -634,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -649,319 +776,443 @@
     <col min="5" max="5" width="19.140625" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="67.5" customHeight="1">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+    <row r="1">
+      <c r="A1" s="18"/>
+    </row>
+    <row r="2" ht="20.1" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="27" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="2" customFormat="1">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="8" ht="18" customHeight="1" s="2" customFormat="1">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="6">
-        <f>C9*D9</f>
-        <v>0</v>
-      </c>
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="8">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
-        <f ref="E10:E23" t="shared" si="0">C10*D10</f>
-        <v>0</v>
-      </c>
+      <c r="A10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="8">
-        <v>3</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="8">
-        <v>4</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="8">
-        <v>5</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="8">
-        <v>6</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="8">
-        <v>7</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="8">
-        <v>8</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="8">
-        <v>9</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="8">
-        <v>10</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="8">
-        <v>11</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="8">
-        <v>12</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="8">
-        <v>13</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="8">
-        <v>14</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="9">
+      <c r="A19" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" ht="30.75" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="4">
-        <f>SUM(C9:C23)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4">
-        <f>SUM(E9:E23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="30.75" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
     </row>
     <row r="28">
-      <c r="C28" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="A28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="A29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C24:E24"/>
   </mergeCells>
   <pageMargins left="0.55069444444444449" right="0.2361111111111111" top="0.47222222222222221" bottom="0.35416666666666669" header="0.31458333333333333" footer="0.27500000000000002"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
